--- a/测试单-电子书_txt-word_161219.xlsx
+++ b/测试单-电子书_txt-word_161219.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="16605" windowHeight="9435" tabRatio="784" activeTab="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2627" uniqueCount="813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2630" uniqueCount="814">
   <si>
     <t>编号</t>
   </si>
@@ -5258,10 +5258,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>返回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -5588,6 +5584,14 @@
   </si>
   <si>
     <t>选择 我的收藏--文件夹（存储卡内的）下面的文件播放，没有记忆路径。每次进入该文件夹都是反显第一项。=》应该记忆文件夹下面的文件路径。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>j</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8113,17 +8117,7 @@
     <cellStyle name="常规 3 9" xfId="37"/>
     <cellStyle name="常规 6" xfId="5"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -8867,7 +8861,7 @@
         <v>42723</v>
       </c>
       <c r="F24" s="362" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="25" spans="2:6">
@@ -9376,12 +9370,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I2:I9">
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9395,10 +9389,10 @@
   <dimension ref="A1:P297"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A219" sqref="A219:G293"/>
+      <selection pane="bottomRight" activeCell="N295" sqref="N295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9459,7 +9453,7 @@
         <v>417</v>
       </c>
       <c r="I2" s="296" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="J2" s="296" t="s">
         <v>7</v>
@@ -10089,7 +10083,7 @@
       </c>
       <c r="F18" s="283"/>
       <c r="G18" s="305" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H18" s="306"/>
       <c r="I18" s="302" t="s">
@@ -10327,7 +10321,7 @@
       </c>
       <c r="F24" s="178"/>
       <c r="G24" s="305" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H24" s="313"/>
       <c r="I24" s="311" t="s">
@@ -10822,14 +10816,14 @@
         <v>42555</v>
       </c>
       <c r="F37" s="361" t="s">
+        <v>791</v>
+      </c>
+      <c r="G37" s="299" t="s">
         <v>792</v>
-      </c>
-      <c r="G37" s="299" t="s">
-        <v>793</v>
       </c>
       <c r="H37" s="397"/>
       <c r="I37" s="397" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="J37" s="64"/>
       <c r="K37" s="357">
@@ -11729,10 +11723,10 @@
       </c>
       <c r="F60" s="321"/>
       <c r="G60" s="305" t="s">
+        <v>787</v>
+      </c>
+      <c r="I60" s="403" t="s">
         <v>788</v>
-      </c>
-      <c r="I60" s="403" t="s">
-        <v>789</v>
       </c>
       <c r="J60" s="307"/>
       <c r="K60" s="402">
@@ -12131,16 +12125,16 @@
         <v>42612</v>
       </c>
       <c r="F70" s="321" t="s">
+        <v>796</v>
+      </c>
+      <c r="G70" s="305" t="s">
         <v>797</v>
-      </c>
-      <c r="G70" s="305" t="s">
-        <v>798</v>
       </c>
       <c r="H70" s="403" t="s">
         <v>262</v>
       </c>
       <c r="I70" s="401" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="J70" s="307"/>
       <c r="K70" s="402">
@@ -12542,7 +12536,7 @@
         <v>644</v>
       </c>
       <c r="G80" s="323" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H80" s="370" t="s">
         <v>642</v>
@@ -12938,7 +12932,7 @@
       </c>
       <c r="F90" s="180"/>
       <c r="G90" s="305" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H90" s="306" t="s">
         <v>262</v>
@@ -15245,7 +15239,7 @@
         <v>256</v>
       </c>
       <c r="G148" s="250" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H148" s="333"/>
       <c r="I148" s="315" t="s">
@@ -15260,7 +15254,7 @@
       </c>
       <c r="M148" s="415"/>
       <c r="N148" s="415" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="O148" s="423">
         <v>42642</v>
@@ -16219,7 +16213,7 @@
         <v>259</v>
       </c>
       <c r="G171" s="343" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H171" s="403"/>
       <c r="I171" s="405" t="s">
@@ -18296,12 +18290,10 @@
         <v>368</v>
       </c>
       <c r="G219" s="243" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H219" s="300"/>
-      <c r="I219" s="390" t="s">
-        <v>780</v>
-      </c>
+      <c r="I219" s="390"/>
       <c r="J219" s="293"/>
       <c r="K219" s="293"/>
       <c r="L219" s="390" t="s">
@@ -18312,7 +18304,7 @@
         <v>503</v>
       </c>
       <c r="O219" s="436">
-        <v>42656</v>
+        <v>42724</v>
       </c>
       <c r="P219" s="390" t="s">
         <v>428</v>
@@ -18723,7 +18715,7 @@
         <v>385</v>
       </c>
       <c r="G229" s="344" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H229" s="306" t="s">
         <v>262</v>
@@ -18768,7 +18760,7 @@
         <v>220</v>
       </c>
       <c r="G230" s="343" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H230" s="306" t="s">
         <v>262</v>
@@ -19496,7 +19488,7 @@
         <v>552</v>
       </c>
       <c r="G248" s="334" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H248" s="300" t="s">
         <v>262</v>
@@ -19577,7 +19569,7 @@
         <v>580</v>
       </c>
       <c r="G250" s="253" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="I250" s="417" t="s">
         <v>46</v>
@@ -19615,7 +19607,7 @@
         <v>553</v>
       </c>
       <c r="G251" s="350" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H251" s="300" t="s">
         <v>262</v>
@@ -20381,7 +20373,7 @@
         <v>648</v>
       </c>
       <c r="G269" s="253" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="I269" s="417" t="s">
         <v>46</v>
@@ -20836,7 +20828,7 @@
         <v>657</v>
       </c>
       <c r="G280" s="272" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H280" s="460" t="s">
         <v>106</v>
@@ -20918,7 +20910,7 @@
         <v>657</v>
       </c>
       <c r="G282" s="351" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H282" s="387" t="s">
         <v>106</v>
@@ -21139,7 +21131,7 @@
         <v>648</v>
       </c>
       <c r="G288" s="351" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H288" s="387"/>
       <c r="I288" s="387" t="s">
@@ -21147,7 +21139,7 @@
       </c>
       <c r="O288" s="436"/>
     </row>
-    <row r="289" spans="1:15" s="390" customFormat="1" ht="40.5" hidden="1">
+    <row r="289" spans="1:16" s="390" customFormat="1" ht="40.5" hidden="1">
       <c r="A289" s="162">
         <v>287</v>
       </c>
@@ -21177,7 +21169,7 @@
       </c>
       <c r="O289" s="436"/>
     </row>
-    <row r="290" spans="1:15" s="390" customFormat="1" ht="40.5" hidden="1">
+    <row r="290" spans="1:16" s="390" customFormat="1" ht="40.5" hidden="1">
       <c r="A290" s="162">
         <v>288</v>
       </c>
@@ -21207,7 +21199,7 @@
       </c>
       <c r="O290" s="436"/>
     </row>
-    <row r="291" spans="1:15" s="390" customFormat="1" ht="27">
+    <row r="291" spans="1:16" s="390" customFormat="1" ht="27">
       <c r="A291" s="162">
         <v>289</v>
       </c>
@@ -21224,17 +21216,25 @@
         <v>42723</v>
       </c>
       <c r="F291" s="390" t="s">
+        <v>781</v>
+      </c>
+      <c r="G291" s="202" t="s">
         <v>782</v>
-      </c>
-      <c r="G291" s="202" t="s">
-        <v>783</v>
       </c>
       <c r="H291" s="390" t="s">
         <v>106</v>
       </c>
-      <c r="O291" s="436"/>
-    </row>
-    <row r="292" spans="1:15" s="390" customFormat="1" ht="27">
+      <c r="L291" s="390" t="s">
+        <v>52</v>
+      </c>
+      <c r="O291" s="436">
+        <v>42724</v>
+      </c>
+      <c r="P291" s="390" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="292" spans="1:16" s="390" customFormat="1" ht="27">
       <c r="A292" s="162">
         <v>290</v>
       </c>
@@ -21251,17 +21251,20 @@
         <v>42723</v>
       </c>
       <c r="F292" s="390" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G292" s="334" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H292" s="390" t="s">
         <v>106</v>
       </c>
       <c r="O292" s="436"/>
-    </row>
-    <row r="293" spans="1:15" s="390" customFormat="1" ht="40.5">
+      <c r="P292" s="390" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="293" spans="1:16" s="390" customFormat="1" ht="40.5">
       <c r="A293" s="162">
         <v>291</v>
       </c>
@@ -21278,29 +21281,32 @@
         <v>42723</v>
       </c>
       <c r="F293" s="390" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G293" s="334" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H293" s="390" t="s">
         <v>106</v>
       </c>
       <c r="O293" s="436"/>
-    </row>
-    <row r="294" spans="1:15">
+      <c r="P293" s="390" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="294" spans="1:16">
       <c r="H294" s="390"/>
     </row>
-    <row r="296" spans="1:15">
+    <row r="296" spans="1:16">
       <c r="H296" s="390"/>
     </row>
-    <row r="297" spans="1:15">
+    <row r="297" spans="1:16">
       <c r="H297" s="390"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:Y293">
     <filterColumn colId="8">
-      <filters blank="1">
+      <filters>
         <filter val="返回"/>
       </filters>
     </filterColumn>
@@ -21309,7 +21315,7 @@
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22661,7 +22667,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I10">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I10)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25664,12 +25670,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I2:I32">
-    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",I1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/测试单-电子书_txt-word_161219.xlsx
+++ b/测试单-电子书_txt-word_161219.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2630" uniqueCount="814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2632" uniqueCount="815">
   <si>
     <t>编号</t>
   </si>
@@ -5592,6 +5592,10 @@
   </si>
   <si>
     <t>j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加判断</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9392,7 +9396,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N295" sqref="N295"/>
+      <selection pane="bottomRight" activeCell="O293" sqref="O293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -21259,7 +21263,12 @@
       <c r="H292" s="390" t="s">
         <v>106</v>
       </c>
-      <c r="O292" s="436"/>
+      <c r="N292" s="390" t="s">
+        <v>814</v>
+      </c>
+      <c r="O292" s="436">
+        <v>42727</v>
+      </c>
       <c r="P292" s="390" t="s">
         <v>813</v>
       </c>
@@ -21289,7 +21298,12 @@
       <c r="H293" s="390" t="s">
         <v>106</v>
       </c>
-      <c r="O293" s="436"/>
+      <c r="N293" s="390" t="s">
+        <v>814</v>
+      </c>
+      <c r="O293" s="436">
+        <v>42727</v>
+      </c>
       <c r="P293" s="390" t="s">
         <v>813</v>
       </c>
